--- a/www/IndicatorsPerCountry/Chad_GDPperCapita_TerritorialRef_1973_2012_CCode_148.xlsx
+++ b/www/IndicatorsPerCountry/Chad_GDPperCapita_TerritorialRef_1973_2012_CCode_148.xlsx
@@ -234,13 +234,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Chad_GDPperCapita_TerritorialRef_1973_2012_CCode_148.xlsx
+++ b/www/IndicatorsPerCountry/Chad_GDPperCapita_TerritorialRef_1973_2012_CCode_148.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="85">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,175 +36,202 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>476</t>
-  </si>
-  <si>
-    <t>486</t>
-  </si>
-  <si>
-    <t>497</t>
-  </si>
-  <si>
-    <t>507</t>
-  </si>
-  <si>
-    <t>518</t>
-  </si>
-  <si>
-    <t>529</t>
-  </si>
-  <si>
-    <t>540</t>
-  </si>
-  <si>
-    <t>552</t>
-  </si>
-  <si>
-    <t>563</t>
-  </si>
-  <si>
-    <t>574</t>
-  </si>
-  <si>
-    <t>569</t>
-  </si>
-  <si>
-    <t>566</t>
-  </si>
-  <si>
-    <t>586</t>
-  </si>
-  <si>
-    <t>567</t>
-  </si>
-  <si>
-    <t>542</t>
-  </si>
-  <si>
-    <t>533</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>505</t>
-  </si>
-  <si>
-    <t>492</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>513</t>
-  </si>
-  <si>
-    <t>467</t>
-  </si>
-  <si>
-    <t>435</t>
-  </si>
-  <si>
-    <t>484</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>535</t>
-  </si>
-  <si>
-    <t>485</t>
-  </si>
-  <si>
-    <t>472</t>
-  </si>
-  <si>
-    <t>362</t>
-  </si>
-  <si>
-    <t>341</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>382</t>
-  </si>
-  <si>
-    <t>385</t>
-  </si>
-  <si>
-    <t>466</t>
-  </si>
-  <si>
-    <t>434</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>459</t>
-  </si>
-  <si>
-    <t>434.312874064</t>
-  </si>
-  <si>
-    <t>464.622647378</t>
-  </si>
-  <si>
-    <t>457.918537148</t>
-  </si>
-  <si>
-    <t>441.511116486</t>
-  </si>
-  <si>
-    <t>457.310151254</t>
-  </si>
-  <si>
-    <t>440.64082145</t>
-  </si>
-  <si>
-    <t>436.108353425</t>
-  </si>
-  <si>
-    <t>441.218208431</t>
-  </si>
-  <si>
-    <t>461.405767398</t>
-  </si>
-  <si>
-    <t>458.051332104</t>
-  </si>
-  <si>
-    <t>448.967130092</t>
-  </si>
-  <si>
-    <t>479.130029948</t>
-  </si>
-  <si>
-    <t>510.53834354</t>
-  </si>
-  <si>
-    <t>564.84642809</t>
-  </si>
-  <si>
-    <t>725.461671167</t>
-  </si>
-  <si>
-    <t>757.500166478</t>
-  </si>
-  <si>
-    <t>739.561952564</t>
-  </si>
-  <si>
-    <t>723.269794503</t>
-  </si>
-  <si>
-    <t>705.742475006</t>
+    <t>815</t>
+  </si>
+  <si>
+    <t>834</t>
+  </si>
+  <si>
+    <t>851</t>
+  </si>
+  <si>
+    <t>870</t>
+  </si>
+  <si>
+    <t>888</t>
+  </si>
+  <si>
+    <t>907</t>
+  </si>
+  <si>
+    <t>926</t>
+  </si>
+  <si>
+    <t>945</t>
+  </si>
+  <si>
+    <t>966</t>
+  </si>
+  <si>
+    <t>983</t>
+  </si>
+  <si>
+    <t>974</t>
+  </si>
+  <si>
+    <t>971</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>972</t>
+  </si>
+  <si>
+    <t>929</t>
+  </si>
+  <si>
+    <t>913</t>
+  </si>
+  <si>
+    <t>878</t>
+  </si>
+  <si>
+    <t>866</t>
+  </si>
+  <si>
+    <t>843</t>
+  </si>
+  <si>
+    <t>881</t>
+  </si>
+  <si>
+    <t>880</t>
+  </si>
+  <si>
+    <t>877</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>746</t>
+  </si>
+  <si>
+    <t>829</t>
+  </si>
+  <si>
+    <t>952</t>
+  </si>
+  <si>
+    <t>918</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>808</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>583</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>577</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>642</t>
+  </si>
+  <si>
+    <t>662</t>
+  </si>
+  <si>
+    <t>663</t>
+  </si>
+  <si>
+    <t>692</t>
+  </si>
+  <si>
+    <t>685</t>
+  </si>
+  <si>
+    <t>703.283742270115</t>
+  </si>
+  <si>
+    <t>698.739002074788</t>
+  </si>
+  <si>
+    <t>680.800540476404</t>
+  </si>
+  <si>
+    <t>713.827084771773</t>
+  </si>
+  <si>
+    <t>700.707623511954</t>
+  </si>
+  <si>
+    <t>694.105019824845</t>
+  </si>
+  <si>
+    <t>719.153116123223</t>
+  </si>
+  <si>
+    <t>753.860799416204</t>
+  </si>
+  <si>
+    <t>733.781232654736</t>
+  </si>
+  <si>
+    <t>716.042363333227</t>
+  </si>
+  <si>
+    <t>783.055164226115</t>
+  </si>
+  <si>
+    <t>831.829185503164</t>
+  </si>
+  <si>
+    <t>925.512616305639</t>
+  </si>
+  <si>
+    <t>1200.27255858474</t>
+  </si>
+  <si>
+    <t>1266.10503289822</t>
+  </si>
+  <si>
+    <t>1225.51631209176</t>
+  </si>
+  <si>
+    <t>1422.34078974323</t>
+  </si>
+  <si>
+    <t>1422.23120099355</t>
+  </si>
+  <si>
+    <t>1533.17948604512</t>
+  </si>
+  <si>
+    <t>1720.33434710546</t>
+  </si>
+  <si>
+    <t>1661</t>
+  </si>
+  <si>
+    <t>1793</t>
+  </si>
+  <si>
+    <t>1888</t>
+  </si>
+  <si>
+    <t>2279</t>
+  </si>
+  <si>
+    <t>2384</t>
+  </si>
+  <si>
+    <t>2189</t>
   </si>
   <si>
     <t>Description</t>
@@ -679,7 +706,7 @@
         <v>1971.0</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -696,7 +723,7 @@
         <v>1972.0</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -713,7 +740,7 @@
         <v>1973.0</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -730,7 +757,7 @@
         <v>1974.0</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -747,7 +774,7 @@
         <v>1975.0</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -764,7 +791,7 @@
         <v>1976.0</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -781,7 +808,7 @@
         <v>1977.0</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -798,7 +825,7 @@
         <v>1978.0</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -815,7 +842,7 @@
         <v>1979.0</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
@@ -832,7 +859,7 @@
         <v>1980.0</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
@@ -849,7 +876,7 @@
         <v>1981.0</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
@@ -866,7 +893,7 @@
         <v>1982.0</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
@@ -883,7 +910,7 @@
         <v>1983.0</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
@@ -900,7 +927,7 @@
         <v>1984.0</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
@@ -917,7 +944,7 @@
         <v>1985.0</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
@@ -934,7 +961,7 @@
         <v>1986.0</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
@@ -951,7 +978,7 @@
         <v>1987.0</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40">
@@ -968,7 +995,7 @@
         <v>1988.0</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
@@ -985,7 +1012,7 @@
         <v>1989.0</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42">
@@ -1019,7 +1046,7 @@
         <v>1991.0</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44">
@@ -1036,7 +1063,7 @@
         <v>1992.0</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45">
@@ -1053,7 +1080,7 @@
         <v>1993.0</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46">
@@ -1070,7 +1097,7 @@
         <v>1994.0</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47">
@@ -1087,7 +1114,7 @@
         <v>1995.0</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48">
@@ -1104,7 +1131,7 @@
         <v>1996.0</v>
       </c>
       <c r="E48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49">
@@ -1121,7 +1148,7 @@
         <v>1997.0</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50">
@@ -1138,7 +1165,7 @@
         <v>1998.0</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51">
@@ -1155,7 +1182,7 @@
         <v>1999.0</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52">
@@ -1172,7 +1199,7 @@
         <v>2000.0</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53">
@@ -1189,7 +1216,7 @@
         <v>2001.0</v>
       </c>
       <c r="E53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54">
@@ -1206,7 +1233,7 @@
         <v>2002.0</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55">
@@ -1223,7 +1250,7 @@
         <v>2003.0</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56">
@@ -1240,7 +1267,7 @@
         <v>2004.0</v>
       </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57">
@@ -1257,7 +1284,7 @@
         <v>2005.0</v>
       </c>
       <c r="E57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58">
@@ -1274,7 +1301,7 @@
         <v>2006.0</v>
       </c>
       <c r="E58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59">
@@ -1291,7 +1318,7 @@
         <v>2007.0</v>
       </c>
       <c r="E59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60">
@@ -1308,7 +1335,143 @@
         <v>2008.0</v>
       </c>
       <c r="E60" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1326,50 +1489,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
